--- a/TestCases_Computer.xlsx
+++ b/TestCases_Computer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>S No.</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t>Application should not create new computer record and user lands on computer detail page.`</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>highlighted Introduced date field validation is not automated</t>
+  </si>
+  <si>
+    <t>highlighted Computer name field validation is not automated</t>
   </si>
 </sst>
 </file>
@@ -533,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:D11"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -545,10 +560,11 @@
     <col min="2" max="2" width="64" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.6328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +577,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -575,8 +597,12 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -589,8 +615,12 @@
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -603,8 +633,12 @@
       <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -617,8 +651,12 @@
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -631,8 +669,12 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -645,8 +687,14 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -659,8 +707,12 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -673,8 +725,14 @@
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -687,8 +745,12 @@
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -701,6 +763,10 @@
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
